--- a/data/trans_orig/P34F1_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P34F1_2023-Habitat-trans_orig.xlsx
@@ -689,12 +689,12 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>28,8%</t>
+          <t>27,8%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>47,59%</t>
+          <t>47,74%</t>
         </is>
       </c>
       <c r="H4" s="2" t="n">
@@ -710,12 +710,12 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>19,39%</t>
+          <t>19,52%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>31,01%</t>
+          <t>30,93%</t>
         </is>
       </c>
       <c r="M4" s="2" t="n">
@@ -731,12 +731,12 @@
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>24,93%</t>
+          <t>25,15%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>35,46%</t>
+          <t>35,82%</t>
         </is>
       </c>
     </row>
@@ -758,12 +758,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,48%</t>
+          <t>0,84%</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,76%</t>
+          <t>6,18%</t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
@@ -779,12 +779,12 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,81%</t>
+          <t>1,61%</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>7,87%</t>
+          <t>7,24%</t>
         </is>
       </c>
       <c r="M5" s="2" t="n">
@@ -800,12 +800,12 @@
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>1,69%</t>
+          <t>1,72%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>5,93%</t>
+          <t>5,54%</t>
         </is>
       </c>
     </row>
@@ -827,12 +827,12 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>6,4%</t>
+          <t>6,65%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>20,08%</t>
+          <t>19,77%</t>
         </is>
       </c>
       <c r="H6" s="2" t="n">
@@ -848,12 +848,12 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>14,28%</t>
+          <t>14,49%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>26,14%</t>
+          <t>25,63%</t>
         </is>
       </c>
       <c r="M6" s="2" t="n">
@@ -869,12 +869,12 @@
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>12,36%</t>
+          <t>11,95%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>20,75%</t>
+          <t>20,58%</t>
         </is>
       </c>
     </row>
@@ -901,7 +901,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,22%</t>
+          <t>3,33%</t>
         </is>
       </c>
       <c r="H7" s="2" t="n">
@@ -917,12 +917,12 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,3%</t>
+          <t>2,31%</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>9,06%</t>
+          <t>9,21%</t>
         </is>
       </c>
       <c r="M7" s="2" t="n">
@@ -938,12 +938,12 @@
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>1,56%</t>
+          <t>1,43%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>5,5%</t>
+          <t>5,51%</t>
         </is>
       </c>
     </row>
@@ -965,12 +965,12 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,23%</t>
+          <t>1,8%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>19,47%</t>
+          <t>15,9%</t>
         </is>
       </c>
       <c r="H8" s="2" t="n">
@@ -986,12 +986,12 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>9,77%</t>
+          <t>9,76%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>19,7%</t>
+          <t>19,47%</t>
         </is>
       </c>
       <c r="M8" s="2" t="n">
@@ -1007,12 +1007,12 @@
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>7,54%</t>
+          <t>7,62%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>15,05%</t>
+          <t>16,21%</t>
         </is>
       </c>
     </row>
@@ -1034,12 +1034,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,85%</t>
+          <t>3,06%</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>23,17%</t>
+          <t>22,37%</t>
         </is>
       </c>
       <c r="H9" s="2" t="n">
@@ -1055,12 +1055,12 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,89%</t>
+          <t>1,92%</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,48%</t>
+          <t>7,43%</t>
         </is>
       </c>
       <c r="M9" s="2" t="n">
@@ -1076,12 +1076,12 @@
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>2,82%</t>
+          <t>2,91%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>11,18%</t>
+          <t>11,69%</t>
         </is>
       </c>
     </row>
@@ -1129,7 +1129,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>2,08%</t>
+          <t>1,93%</t>
         </is>
       </c>
       <c r="M10" s="2" t="n">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>1,1%</t>
+          <t>1,37%</t>
         </is>
       </c>
     </row>
@@ -1172,12 +1172,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>23,29%</t>
+          <t>24,3%</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>42,52%</t>
+          <t>43,3%</t>
         </is>
       </c>
       <c r="H11" s="2" t="n">
@@ -1193,12 +1193,12 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>22,83%</t>
+          <t>22,24%</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>37,25%</t>
+          <t>36,67%</t>
         </is>
       </c>
       <c r="M11" s="2" t="n">
@@ -1214,12 +1214,12 @@
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>25,7%</t>
+          <t>25,62%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>37,49%</t>
+          <t>36,69%</t>
         </is>
       </c>
     </row>
@@ -1316,12 +1316,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>36,86%</t>
+          <t>36,83%</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>45,85%</t>
+          <t>45,98%</t>
         </is>
       </c>
       <c r="H13" s="2" t="n">
@@ -1337,12 +1337,12 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>36,8%</t>
+          <t>36,52%</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>43,58%</t>
+          <t>43,35%</t>
         </is>
       </c>
       <c r="M13" s="2" t="n">
@@ -1358,12 +1358,12 @@
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>37,89%</t>
+          <t>38,13%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>43,43%</t>
+          <t>43,7%</t>
         </is>
       </c>
     </row>
@@ -1385,12 +1385,12 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>11,85%</t>
+          <t>11,76%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>17,97%</t>
+          <t>18,2%</t>
         </is>
       </c>
       <c r="H14" s="2" t="n">
@@ -1406,12 +1406,12 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>9,81%</t>
+          <t>9,67%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>14,16%</t>
+          <t>14,05%</t>
         </is>
       </c>
       <c r="M14" s="2" t="n">
@@ -1427,12 +1427,12 @@
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>11,32%</t>
+          <t>11,33%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>15,19%</t>
+          <t>15,34%</t>
         </is>
       </c>
     </row>
@@ -1454,12 +1454,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>6,33%</t>
+          <t>6,18%</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>11,13%</t>
+          <t>10,95%</t>
         </is>
       </c>
       <c r="H15" s="2" t="n">
@@ -1475,12 +1475,12 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>7,79%</t>
+          <t>7,98%</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>11,84%</t>
+          <t>11,62%</t>
         </is>
       </c>
       <c r="M15" s="2" t="n">
@@ -1496,12 +1496,12 @@
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>7,62%</t>
+          <t>7,67%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>10,57%</t>
+          <t>10,66%</t>
         </is>
       </c>
     </row>
@@ -1523,12 +1523,12 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,85%</t>
+          <t>1,83%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>5,61%</t>
+          <t>5,52%</t>
         </is>
       </c>
       <c r="H16" s="2" t="n">
@@ -1549,7 +1549,7 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>5,35%</t>
+          <t>5,25%</t>
         </is>
       </c>
       <c r="M16" s="2" t="n">
@@ -1565,12 +1565,12 @@
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>2,63%</t>
+          <t>2,62%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>4,68%</t>
+          <t>4,71%</t>
         </is>
       </c>
     </row>
@@ -1592,12 +1592,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,18%</t>
+          <t>2,17%</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>5,56%</t>
+          <t>5,4%</t>
         </is>
       </c>
       <c r="H17" s="2" t="n">
@@ -1613,12 +1613,12 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>4,12%</t>
+          <t>3,97%</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>7,14%</t>
+          <t>6,98%</t>
         </is>
       </c>
       <c r="M17" s="2" t="n">
@@ -1634,12 +1634,12 @@
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>3,54%</t>
+          <t>3,56%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>5,64%</t>
+          <t>5,72%</t>
         </is>
       </c>
     </row>
@@ -1666,7 +1666,7 @@
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>3,66%</t>
+          <t>3,72%</t>
         </is>
       </c>
       <c r="H18" s="2" t="n">
@@ -1682,12 +1682,12 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>1,78%</t>
+          <t>1,77%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>3,74%</t>
+          <t>3,97%</t>
         </is>
       </c>
       <c r="M18" s="2" t="n">
@@ -1708,7 +1708,7 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>3,33%</t>
+          <t>3,21%</t>
         </is>
       </c>
     </row>
@@ -1730,12 +1730,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,3%</t>
+          <t>0,31%</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>1,73%</t>
+          <t>1,61%</t>
         </is>
       </c>
       <c r="H19" s="2" t="n">
@@ -1751,12 +1751,12 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0,54%</t>
+          <t>0,58%</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>1,9%</t>
+          <t>1,85%</t>
         </is>
       </c>
       <c r="M19" s="2" t="n">
@@ -1772,12 +1772,12 @@
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>0,57%</t>
+          <t>0,56%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>1,44%</t>
+          <t>1,48%</t>
         </is>
       </c>
     </row>
@@ -1799,12 +1799,12 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>22,3%</t>
+          <t>22,06%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>30,85%</t>
+          <t>31,01%</t>
         </is>
       </c>
       <c r="H20" s="2" t="n">
@@ -1820,12 +1820,12 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>22,29%</t>
+          <t>22,83%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>28,42%</t>
+          <t>28,73%</t>
         </is>
       </c>
       <c r="M20" s="2" t="n">
@@ -1841,12 +1841,12 @@
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>23,36%</t>
+          <t>23,31%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>28,67%</t>
+          <t>28,48%</t>
         </is>
       </c>
     </row>
@@ -1882,7 +1882,7 @@
         <v>987</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>587593</v>
+        <v>587594</v>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
@@ -1943,12 +1943,12 @@
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>28,58%</t>
+          <t>29,29%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>38,61%</t>
+          <t>39,08%</t>
         </is>
       </c>
       <c r="H22" s="2" t="n">
@@ -1964,12 +1964,12 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>33,62%</t>
+          <t>33,53%</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>38,97%</t>
+          <t>38,77%</t>
         </is>
       </c>
       <c r="M22" s="2" t="n">
@@ -1985,12 +1985,12 @@
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>32,28%</t>
+          <t>32,73%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>38,03%</t>
+          <t>38,12%</t>
         </is>
       </c>
     </row>
@@ -2012,12 +2012,12 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>14,43%</t>
+          <t>14,21%</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>35,01%</t>
+          <t>32,05%</t>
         </is>
       </c>
       <c r="H23" s="2" t="n">
@@ -2033,7 +2033,7 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>12,72%</t>
+          <t>12,59%</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
@@ -2054,12 +2054,12 @@
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>14,36%</t>
+          <t>14,46%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>24,38%</t>
+          <t>24,07%</t>
         </is>
       </c>
     </row>
@@ -2081,12 +2081,12 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>8,72%</t>
+          <t>8,89%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>13,46%</t>
+          <t>13,4%</t>
         </is>
       </c>
       <c r="H24" s="2" t="n">
@@ -2102,12 +2102,12 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>9,2%</t>
+          <t>9,23%</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>12,57%</t>
+          <t>12,58%</t>
         </is>
       </c>
       <c r="M24" s="2" t="n">
@@ -2123,12 +2123,12 @@
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>9,48%</t>
+          <t>9,52%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>12,41%</t>
+          <t>12,5%</t>
         </is>
       </c>
     </row>
@@ -2150,12 +2150,12 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>1,64%</t>
+          <t>1,6%</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>4,57%</t>
+          <t>4,39%</t>
         </is>
       </c>
       <c r="H25" s="2" t="n">
@@ -2171,12 +2171,12 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>3,2%</t>
+          <t>3,02%</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>5,4%</t>
+          <t>5,29%</t>
         </is>
       </c>
       <c r="M25" s="2" t="n">
@@ -2192,12 +2192,12 @@
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>2,74%</t>
+          <t>2,71%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>4,39%</t>
+          <t>4,4%</t>
         </is>
       </c>
     </row>
@@ -2219,12 +2219,12 @@
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>4,61%</t>
+          <t>4,35%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>8,49%</t>
+          <t>8,33%</t>
         </is>
       </c>
       <c r="H26" s="2" t="n">
@@ -2240,12 +2240,12 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>5,72%</t>
+          <t>5,58%</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>8,38%</t>
+          <t>8,47%</t>
         </is>
       </c>
       <c r="M26" s="2" t="n">
@@ -2261,12 +2261,12 @@
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>5,49%</t>
+          <t>5,45%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>7,93%</t>
+          <t>7,86%</t>
         </is>
       </c>
     </row>
@@ -2288,12 +2288,12 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>2,46%</t>
+          <t>2,44%</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>5,12%</t>
+          <t>5,07%</t>
         </is>
       </c>
       <c r="H27" s="2" t="n">
@@ -2314,7 +2314,7 @@
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>6,01%</t>
+          <t>5,99%</t>
         </is>
       </c>
       <c r="M27" s="2" t="n">
@@ -2330,12 +2330,12 @@
       </c>
       <c r="P27" s="2" t="inlineStr">
         <is>
-          <t>3,38%</t>
+          <t>3,43%</t>
         </is>
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>5,17%</t>
+          <t>5,26%</t>
         </is>
       </c>
     </row>
@@ -2357,12 +2357,12 @@
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,28%</t>
+          <t>0,27%</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>1,46%</t>
+          <t>1,33%</t>
         </is>
       </c>
       <c r="H28" s="2" t="n">
@@ -2378,12 +2378,12 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,86%</t>
+          <t>0,78%</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>2,2%</t>
+          <t>2,11%</t>
         </is>
       </c>
       <c r="M28" s="2" t="n">
@@ -2399,12 +2399,12 @@
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>0,68%</t>
+          <t>0,69%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
         <is>
-          <t>1,52%</t>
+          <t>1,54%</t>
         </is>
       </c>
     </row>
@@ -2426,12 +2426,12 @@
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>17,3%</t>
+          <t>17,5%</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>24,0%</t>
+          <t>24,14%</t>
         </is>
       </c>
       <c r="H29" s="2" t="n">
@@ -2447,12 +2447,12 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>19,07%</t>
+          <t>19,06%</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>23,59%</t>
+          <t>23,49%</t>
         </is>
       </c>
       <c r="M29" s="2" t="n">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="Q29" s="2" t="inlineStr">
         <is>
-          <t>23,28%</t>
+          <t>23,29%</t>
         </is>
       </c>
     </row>
@@ -2570,12 +2570,12 @@
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>36,45%</t>
+          <t>37,15%</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>45,42%</t>
+          <t>45,34%</t>
         </is>
       </c>
       <c r="H31" s="2" t="n">
@@ -2591,12 +2591,12 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>34,58%</t>
+          <t>34,94%</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>64,01%</t>
+          <t>63,38%</t>
         </is>
       </c>
       <c r="M31" s="2" t="n">
@@ -2612,12 +2612,12 @@
       </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>37,7%</t>
+          <t>37,59%</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
         <is>
-          <t>58,41%</t>
+          <t>55,94%</t>
         </is>
       </c>
     </row>
@@ -2639,12 +2639,12 @@
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>5,94%</t>
+          <t>5,76%</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>10,34%</t>
+          <t>10,18%</t>
         </is>
       </c>
       <c r="H32" s="2" t="n">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>9,02%</t>
+          <t>9,04%</t>
         </is>
       </c>
       <c r="M32" s="2" t="n">
@@ -2681,12 +2681,12 @@
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>5,78%</t>
+          <t>5,46%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
         <is>
-          <t>8,89%</t>
+          <t>8,86%</t>
         </is>
       </c>
     </row>
@@ -2708,12 +2708,12 @@
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>12,98%</t>
+          <t>12,88%</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>19,32%</t>
+          <t>19,14%</t>
         </is>
       </c>
       <c r="H33" s="2" t="n">
@@ -2729,12 +2729,12 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>8,13%</t>
+          <t>7,93%</t>
         </is>
       </c>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>15,33%</t>
+          <t>15,0%</t>
         </is>
       </c>
       <c r="M33" s="2" t="n">
@@ -2750,12 +2750,12 @@
       </c>
       <c r="P33" s="2" t="inlineStr">
         <is>
-          <t>10,74%</t>
+          <t>10,64%</t>
         </is>
       </c>
       <c r="Q33" s="2" t="inlineStr">
         <is>
-          <t>16,05%</t>
+          <t>16,13%</t>
         </is>
       </c>
     </row>
@@ -2777,12 +2777,12 @@
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>5,1%</t>
+          <t>5,18%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>9,77%</t>
+          <t>9,71%</t>
         </is>
       </c>
       <c r="H34" s="2" t="n">
@@ -2798,12 +2798,12 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>2,53%</t>
+          <t>2,5%</t>
         </is>
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>5,73%</t>
+          <t>5,86%</t>
         </is>
       </c>
       <c r="M34" s="2" t="n">
@@ -2819,12 +2819,12 @@
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>4,15%</t>
+          <t>4,09%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
         <is>
-          <t>6,96%</t>
+          <t>6,87%</t>
         </is>
       </c>
     </row>
@@ -2846,12 +2846,12 @@
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>4,02%</t>
+          <t>4,07%</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>8,23%</t>
+          <t>8,07%</t>
         </is>
       </c>
       <c r="H35" s="2" t="n">
@@ -2867,12 +2867,12 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>5,23%</t>
+          <t>5,49%</t>
         </is>
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>10,96%</t>
+          <t>10,94%</t>
         </is>
       </c>
       <c r="M35" s="2" t="n">
@@ -2888,12 +2888,12 @@
       </c>
       <c r="P35" s="2" t="inlineStr">
         <is>
-          <t>5,39%</t>
+          <t>5,46%</t>
         </is>
       </c>
       <c r="Q35" s="2" t="inlineStr">
         <is>
-          <t>8,87%</t>
+          <t>8,69%</t>
         </is>
       </c>
     </row>
@@ -2915,12 +2915,12 @@
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>2,13%</t>
+          <t>2,18%</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>5,5%</t>
+          <t>5,31%</t>
         </is>
       </c>
       <c r="H36" s="2" t="n">
@@ -2936,12 +2936,12 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>2,5%</t>
+          <t>2,57%</t>
         </is>
       </c>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>5,77%</t>
+          <t>5,66%</t>
         </is>
       </c>
       <c r="M36" s="2" t="n">
@@ -2957,12 +2957,12 @@
       </c>
       <c r="P36" s="2" t="inlineStr">
         <is>
-          <t>2,81%</t>
+          <t>2,91%</t>
         </is>
       </c>
       <c r="Q36" s="2" t="inlineStr">
         <is>
-          <t>4,99%</t>
+          <t>5,13%</t>
         </is>
       </c>
     </row>
@@ -2984,12 +2984,12 @@
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>1,11%</t>
+          <t>1,09%</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>3,6%</t>
+          <t>3,54%</t>
         </is>
       </c>
       <c r="H37" s="2" t="n">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>0,92%</t>
+          <t>0,94%</t>
         </is>
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>2,83%</t>
+          <t>2,78%</t>
         </is>
       </c>
       <c r="M37" s="2" t="n">
@@ -3026,12 +3026,12 @@
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>1,25%</t>
+          <t>1,3%</t>
         </is>
       </c>
       <c r="Q37" s="2" t="inlineStr">
         <is>
-          <t>2,79%</t>
+          <t>2,78%</t>
         </is>
       </c>
     </row>
@@ -3053,12 +3053,12 @@
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>13,47%</t>
+          <t>13,55%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>20,12%</t>
+          <t>19,96%</t>
         </is>
       </c>
       <c r="H38" s="2" t="n">
@@ -3074,12 +3074,12 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>11,78%</t>
+          <t>11,14%</t>
         </is>
       </c>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>22,79%</t>
+          <t>23,0%</t>
         </is>
       </c>
       <c r="M38" s="2" t="n">
@@ -3095,12 +3095,12 @@
       </c>
       <c r="P38" s="2" t="inlineStr">
         <is>
-          <t>13,77%</t>
+          <t>13,96%</t>
         </is>
       </c>
       <c r="Q38" s="2" t="inlineStr">
         <is>
-          <t>20,48%</t>
+          <t>20,51%</t>
         </is>
       </c>
     </row>
@@ -3197,7 +3197,7 @@
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>45,89%</t>
+          <t>45,5%</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
@@ -3218,12 +3218,12 @@
       </c>
       <c r="K40" s="2" t="inlineStr">
         <is>
-          <t>38,04%</t>
+          <t>37,9%</t>
         </is>
       </c>
       <c r="L40" s="2" t="inlineStr">
         <is>
-          <t>43,94%</t>
+          <t>43,99%</t>
         </is>
       </c>
       <c r="M40" s="2" t="n">
@@ -3239,12 +3239,12 @@
       </c>
       <c r="P40" s="2" t="inlineStr">
         <is>
-          <t>42,63%</t>
+          <t>42,35%</t>
         </is>
       </c>
       <c r="Q40" s="2" t="inlineStr">
         <is>
-          <t>47,09%</t>
+          <t>47,08%</t>
         </is>
       </c>
     </row>
@@ -3266,12 +3266,12 @@
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>10,88%</t>
+          <t>10,87%</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>15,61%</t>
+          <t>15,21%</t>
         </is>
       </c>
       <c r="H41" s="2" t="n">
@@ -3287,12 +3287,12 @@
       </c>
       <c r="K41" s="2" t="inlineStr">
         <is>
-          <t>8,21%</t>
+          <t>7,98%</t>
         </is>
       </c>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t>11,68%</t>
+          <t>11,29%</t>
         </is>
       </c>
       <c r="M41" s="2" t="n">
@@ -3313,7 +3313,7 @@
       </c>
       <c r="Q41" s="2" t="inlineStr">
         <is>
-          <t>12,62%</t>
+          <t>12,61%</t>
         </is>
       </c>
     </row>
@@ -3335,12 +3335,12 @@
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>9,7%</t>
+          <t>9,61%</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>14,51%</t>
+          <t>14,18%</t>
         </is>
       </c>
       <c r="H42" s="2" t="n">
@@ -3356,12 +3356,12 @@
       </c>
       <c r="K42" s="2" t="inlineStr">
         <is>
-          <t>12,95%</t>
+          <t>13,05%</t>
         </is>
       </c>
       <c r="L42" s="2" t="inlineStr">
         <is>
-          <t>17,27%</t>
+          <t>17,34%</t>
         </is>
       </c>
       <c r="M42" s="2" t="n">
@@ -3377,12 +3377,12 @@
       </c>
       <c r="P42" s="2" t="inlineStr">
         <is>
-          <t>12,14%</t>
+          <t>12,11%</t>
         </is>
       </c>
       <c r="Q42" s="2" t="inlineStr">
         <is>
-          <t>15,19%</t>
+          <t>15,4%</t>
         </is>
       </c>
     </row>
@@ -3404,12 +3404,12 @@
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>1,36%</t>
+          <t>1,35%</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>3,33%</t>
+          <t>3,37%</t>
         </is>
       </c>
       <c r="H43" s="2" t="n">
@@ -3425,12 +3425,12 @@
       </c>
       <c r="K43" s="2" t="inlineStr">
         <is>
-          <t>2,65%</t>
+          <t>2,78%</t>
         </is>
       </c>
       <c r="L43" s="2" t="inlineStr">
         <is>
-          <t>4,54%</t>
+          <t>4,66%</t>
         </is>
       </c>
       <c r="M43" s="2" t="n">
@@ -3446,12 +3446,12 @@
       </c>
       <c r="P43" s="2" t="inlineStr">
         <is>
-          <t>2,39%</t>
+          <t>2,33%</t>
         </is>
       </c>
       <c r="Q43" s="2" t="inlineStr">
         <is>
-          <t>3,66%</t>
+          <t>3,67%</t>
         </is>
       </c>
     </row>
@@ -3473,12 +3473,12 @@
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>3,39%</t>
+          <t>3,48%</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>6,36%</t>
+          <t>6,44%</t>
         </is>
       </c>
       <c r="H44" s="2" t="n">
@@ -3494,12 +3494,12 @@
       </c>
       <c r="K44" s="2" t="inlineStr">
         <is>
-          <t>5,13%</t>
+          <t>5,1%</t>
         </is>
       </c>
       <c r="L44" s="2" t="inlineStr">
         <is>
-          <t>7,81%</t>
+          <t>7,8%</t>
         </is>
       </c>
       <c r="M44" s="2" t="n">
@@ -3515,7 +3515,7 @@
       </c>
       <c r="P44" s="2" t="inlineStr">
         <is>
-          <t>4,67%</t>
+          <t>4,72%</t>
         </is>
       </c>
       <c r="Q44" s="2" t="inlineStr">
@@ -3547,7 +3547,7 @@
       </c>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>4,14%</t>
+          <t>4,19%</t>
         </is>
       </c>
       <c r="H45" s="2" t="n">
@@ -3563,12 +3563,12 @@
       </c>
       <c r="K45" s="2" t="inlineStr">
         <is>
-          <t>2,65%</t>
+          <t>2,7%</t>
         </is>
       </c>
       <c r="L45" s="2" t="inlineStr">
         <is>
-          <t>9,93%</t>
+          <t>9,34%</t>
         </is>
       </c>
       <c r="M45" s="2" t="n">
@@ -3584,12 +3584,12 @@
       </c>
       <c r="P45" s="2" t="inlineStr">
         <is>
-          <t>2,62%</t>
+          <t>2,72%</t>
         </is>
       </c>
       <c r="Q45" s="2" t="inlineStr">
         <is>
-          <t>6,23%</t>
+          <t>6,32%</t>
         </is>
       </c>
     </row>
@@ -3611,12 +3611,12 @@
       </c>
       <c r="F46" s="2" t="inlineStr">
         <is>
-          <t>0,63%</t>
+          <t>0,64%</t>
         </is>
       </c>
       <c r="G46" s="2" t="inlineStr">
         <is>
-          <t>1,8%</t>
+          <t>1,95%</t>
         </is>
       </c>
       <c r="H46" s="2" t="n">
@@ -3632,12 +3632,12 @@
       </c>
       <c r="K46" s="2" t="inlineStr">
         <is>
-          <t>1,47%</t>
+          <t>1,52%</t>
         </is>
       </c>
       <c r="L46" s="2" t="inlineStr">
         <is>
-          <t>3,08%</t>
+          <t>3,13%</t>
         </is>
       </c>
       <c r="M46" s="2" t="n">
@@ -3653,12 +3653,12 @@
       </c>
       <c r="P46" s="2" t="inlineStr">
         <is>
-          <t>1,26%</t>
+          <t>1,3%</t>
         </is>
       </c>
       <c r="Q46" s="2" t="inlineStr">
         <is>
-          <t>2,32%</t>
+          <t>2,3%</t>
         </is>
       </c>
     </row>
@@ -3680,12 +3680,12 @@
       </c>
       <c r="F47" s="2" t="inlineStr">
         <is>
-          <t>12,98%</t>
+          <t>12,73%</t>
         </is>
       </c>
       <c r="G47" s="2" t="inlineStr">
         <is>
-          <t>17,51%</t>
+          <t>17,52%</t>
         </is>
       </c>
       <c r="H47" s="2" t="n">
@@ -3701,12 +3701,12 @@
       </c>
       <c r="K47" s="2" t="inlineStr">
         <is>
-          <t>15,74%</t>
+          <t>15,85%</t>
         </is>
       </c>
       <c r="L47" s="2" t="inlineStr">
         <is>
-          <t>19,9%</t>
+          <t>19,78%</t>
         </is>
       </c>
       <c r="M47" s="2" t="n">
@@ -3722,12 +3722,12 @@
       </c>
       <c r="P47" s="2" t="inlineStr">
         <is>
-          <t>14,94%</t>
+          <t>14,95%</t>
         </is>
       </c>
       <c r="Q47" s="2" t="inlineStr">
         <is>
-          <t>18,12%</t>
+          <t>18,27%</t>
         </is>
       </c>
     </row>
@@ -3824,12 +3824,12 @@
       </c>
       <c r="F49" s="2" t="inlineStr">
         <is>
-          <t>39,05%</t>
+          <t>39,22%</t>
         </is>
       </c>
       <c r="G49" s="2" t="inlineStr">
         <is>
-          <t>43,49%</t>
+          <t>43,52%</t>
         </is>
       </c>
       <c r="H49" s="2" t="n">
@@ -3845,12 +3845,12 @@
       </c>
       <c r="K49" s="2" t="inlineStr">
         <is>
-          <t>37,44%</t>
+          <t>37,12%</t>
         </is>
       </c>
       <c r="L49" s="2" t="inlineStr">
         <is>
-          <t>46,39%</t>
+          <t>46,32%</t>
         </is>
       </c>
       <c r="M49" s="2" t="n">
@@ -3866,12 +3866,12 @@
       </c>
       <c r="P49" s="2" t="inlineStr">
         <is>
-          <t>39,02%</t>
+          <t>38,77%</t>
         </is>
       </c>
       <c r="Q49" s="2" t="inlineStr">
         <is>
-          <t>44,13%</t>
+          <t>43,75%</t>
         </is>
       </c>
     </row>
@@ -3893,12 +3893,12 @@
       </c>
       <c r="F50" s="2" t="inlineStr">
         <is>
-          <t>12,07%</t>
+          <t>11,94%</t>
         </is>
       </c>
       <c r="G50" s="2" t="inlineStr">
         <is>
-          <t>18,71%</t>
+          <t>18,22%</t>
         </is>
       </c>
       <c r="H50" s="2" t="n">
@@ -3914,12 +3914,12 @@
       </c>
       <c r="K50" s="2" t="inlineStr">
         <is>
-          <t>9,29%</t>
+          <t>9,26%</t>
         </is>
       </c>
       <c r="L50" s="2" t="inlineStr">
         <is>
-          <t>11,56%</t>
+          <t>11,57%</t>
         </is>
       </c>
       <c r="M50" s="2" t="n">
@@ -3940,7 +3940,7 @@
       </c>
       <c r="Q50" s="2" t="inlineStr">
         <is>
-          <t>14,42%</t>
+          <t>14,36%</t>
         </is>
       </c>
     </row>
@@ -3962,12 +3962,12 @@
       </c>
       <c r="F51" s="2" t="inlineStr">
         <is>
-          <t>10,65%</t>
+          <t>10,71%</t>
         </is>
       </c>
       <c r="G51" s="2" t="inlineStr">
         <is>
-          <t>13,18%</t>
+          <t>13,25%</t>
         </is>
       </c>
       <c r="H51" s="2" t="n">
@@ -3983,12 +3983,12 @@
       </c>
       <c r="K51" s="2" t="inlineStr">
         <is>
-          <t>11,07%</t>
+          <t>11,21%</t>
         </is>
       </c>
       <c r="L51" s="2" t="inlineStr">
         <is>
-          <t>13,61%</t>
+          <t>13,7%</t>
         </is>
       </c>
       <c r="M51" s="2" t="n">
@@ -4004,12 +4004,12 @@
       </c>
       <c r="P51" s="2" t="inlineStr">
         <is>
-          <t>11,32%</t>
+          <t>11,33%</t>
         </is>
       </c>
       <c r="Q51" s="2" t="inlineStr">
         <is>
-          <t>13,1%</t>
+          <t>13,13%</t>
         </is>
       </c>
     </row>
@@ -4031,12 +4031,12 @@
       </c>
       <c r="F52" s="2" t="inlineStr">
         <is>
-          <t>2,82%</t>
+          <t>2,76%</t>
         </is>
       </c>
       <c r="G52" s="2" t="inlineStr">
         <is>
-          <t>4,32%</t>
+          <t>4,27%</t>
         </is>
       </c>
       <c r="H52" s="2" t="n">
@@ -4052,12 +4052,12 @@
       </c>
       <c r="K52" s="2" t="inlineStr">
         <is>
-          <t>3,27%</t>
+          <t>3,35%</t>
         </is>
       </c>
       <c r="L52" s="2" t="inlineStr">
         <is>
-          <t>4,49%</t>
+          <t>4,67%</t>
         </is>
       </c>
       <c r="M52" s="2" t="n">
@@ -4073,12 +4073,12 @@
       </c>
       <c r="P52" s="2" t="inlineStr">
         <is>
-          <t>3,26%</t>
+          <t>3,28%</t>
         </is>
       </c>
       <c r="Q52" s="2" t="inlineStr">
         <is>
-          <t>4,2%</t>
+          <t>4,21%</t>
         </is>
       </c>
     </row>
@@ -4100,12 +4100,12 @@
       </c>
       <c r="F53" s="2" t="inlineStr">
         <is>
-          <t>4,45%</t>
+          <t>4,4%</t>
         </is>
       </c>
       <c r="G53" s="2" t="inlineStr">
         <is>
-          <t>6,18%</t>
+          <t>6,24%</t>
         </is>
       </c>
       <c r="H53" s="2" t="n">
@@ -4121,7 +4121,7 @@
       </c>
       <c r="K53" s="2" t="inlineStr">
         <is>
-          <t>6,14%</t>
+          <t>6,15%</t>
         </is>
       </c>
       <c r="L53" s="2" t="inlineStr">
@@ -4142,12 +4142,12 @@
       </c>
       <c r="P53" s="2" t="inlineStr">
         <is>
-          <t>5,61%</t>
+          <t>5,64%</t>
         </is>
       </c>
       <c r="Q53" s="2" t="inlineStr">
         <is>
-          <t>6,85%</t>
+          <t>6,87%</t>
         </is>
       </c>
     </row>
@@ -4169,12 +4169,12 @@
       </c>
       <c r="F54" s="2" t="inlineStr">
         <is>
-          <t>2,62%</t>
+          <t>2,67%</t>
         </is>
       </c>
       <c r="G54" s="2" t="inlineStr">
         <is>
-          <t>4,07%</t>
+          <t>3,99%</t>
         </is>
       </c>
       <c r="H54" s="2" t="n">
@@ -4190,12 +4190,12 @@
       </c>
       <c r="K54" s="2" t="inlineStr">
         <is>
-          <t>3,47%</t>
+          <t>3,43%</t>
         </is>
       </c>
       <c r="L54" s="2" t="inlineStr">
         <is>
-          <t>5,75%</t>
+          <t>5,64%</t>
         </is>
       </c>
       <c r="M54" s="2" t="n">
@@ -4211,12 +4211,12 @@
       </c>
       <c r="P54" s="2" t="inlineStr">
         <is>
-          <t>3,23%</t>
+          <t>3,24%</t>
         </is>
       </c>
       <c r="Q54" s="2" t="inlineStr">
         <is>
-          <t>4,59%</t>
+          <t>4,5%</t>
         </is>
       </c>
     </row>
@@ -4238,12 +4238,12 @@
       </c>
       <c r="F55" s="2" t="inlineStr">
         <is>
-          <t>0,75%</t>
+          <t>0,76%</t>
         </is>
       </c>
       <c r="G55" s="2" t="inlineStr">
         <is>
-          <t>1,53%</t>
+          <t>1,51%</t>
         </is>
       </c>
       <c r="H55" s="2" t="n">
@@ -4259,12 +4259,12 @@
       </c>
       <c r="K55" s="2" t="inlineStr">
         <is>
-          <t>1,29%</t>
+          <t>1,28%</t>
         </is>
       </c>
       <c r="L55" s="2" t="inlineStr">
         <is>
-          <t>2,07%</t>
+          <t>2,05%</t>
         </is>
       </c>
       <c r="M55" s="2" t="n">
@@ -4280,12 +4280,12 @@
       </c>
       <c r="P55" s="2" t="inlineStr">
         <is>
-          <t>1,14%</t>
+          <t>1,15%</t>
         </is>
       </c>
       <c r="Q55" s="2" t="inlineStr">
         <is>
-          <t>1,65%</t>
+          <t>1,67%</t>
         </is>
       </c>
     </row>
@@ -4307,12 +4307,12 @@
       </c>
       <c r="F56" s="2" t="inlineStr">
         <is>
-          <t>17,95%</t>
+          <t>17,99%</t>
         </is>
       </c>
       <c r="G56" s="2" t="inlineStr">
         <is>
-          <t>21,23%</t>
+          <t>21,28%</t>
         </is>
       </c>
       <c r="H56" s="2" t="n">
@@ -4328,12 +4328,12 @@
       </c>
       <c r="K56" s="2" t="inlineStr">
         <is>
-          <t>18,4%</t>
+          <t>18,36%</t>
         </is>
       </c>
       <c r="L56" s="2" t="inlineStr">
         <is>
-          <t>22,01%</t>
+          <t>21,87%</t>
         </is>
       </c>
       <c r="M56" s="2" t="n">
@@ -4349,12 +4349,12 @@
       </c>
       <c r="P56" s="2" t="inlineStr">
         <is>
-          <t>18,81%</t>
+          <t>18,88%</t>
         </is>
       </c>
       <c r="Q56" s="2" t="inlineStr">
         <is>
-          <t>21,3%</t>
+          <t>21,25%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/P34F1_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P34F1_2023-Habitat-trans_orig.xlsx
@@ -670,7 +670,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="n">
@@ -1297,7 +1297,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B13" s="3" t="n">
@@ -1924,7 +1924,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B22" s="3" t="n">
@@ -2551,7 +2551,7 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B31" s="3" t="n">

--- a/data/trans_orig/P34F1_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P34F1_2023-Habitat-trans_orig.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal original" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables originales" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -689,12 +689,12 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>27,8%</t>
+          <t>28,8%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>47,74%</t>
+          <t>47,59%</t>
         </is>
       </c>
       <c r="H4" s="2" t="n">
@@ -710,12 +710,12 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>19,52%</t>
+          <t>19,39%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>30,93%</t>
+          <t>31,01%</t>
         </is>
       </c>
       <c r="M4" s="2" t="n">
@@ -731,12 +731,12 @@
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>25,15%</t>
+          <t>24,93%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>35,82%</t>
+          <t>35,46%</t>
         </is>
       </c>
     </row>
@@ -758,12 +758,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,84%</t>
+          <t>0,48%</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,18%</t>
+          <t>6,76%</t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
@@ -779,12 +779,12 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,61%</t>
+          <t>1,81%</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>7,24%</t>
+          <t>7,87%</t>
         </is>
       </c>
       <c r="M5" s="2" t="n">
@@ -800,12 +800,12 @@
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>1,72%</t>
+          <t>1,69%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>5,54%</t>
+          <t>5,93%</t>
         </is>
       </c>
     </row>
@@ -827,12 +827,12 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>6,65%</t>
+          <t>6,4%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>19,77%</t>
+          <t>20,08%</t>
         </is>
       </c>
       <c r="H6" s="2" t="n">
@@ -848,12 +848,12 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>14,49%</t>
+          <t>14,28%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>25,63%</t>
+          <t>26,14%</t>
         </is>
       </c>
       <c r="M6" s="2" t="n">
@@ -869,12 +869,12 @@
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>11,95%</t>
+          <t>12,36%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>20,58%</t>
+          <t>20,75%</t>
         </is>
       </c>
     </row>
@@ -901,7 +901,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,33%</t>
+          <t>3,22%</t>
         </is>
       </c>
       <c r="H7" s="2" t="n">
@@ -917,12 +917,12 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,31%</t>
+          <t>2,3%</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>9,21%</t>
+          <t>9,06%</t>
         </is>
       </c>
       <c r="M7" s="2" t="n">
@@ -938,12 +938,12 @@
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>1,43%</t>
+          <t>1,56%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>5,51%</t>
+          <t>5,5%</t>
         </is>
       </c>
     </row>
@@ -965,12 +965,12 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,8%</t>
+          <t>2,23%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>15,9%</t>
+          <t>19,47%</t>
         </is>
       </c>
       <c r="H8" s="2" t="n">
@@ -986,12 +986,12 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>9,76%</t>
+          <t>9,77%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>19,47%</t>
+          <t>19,7%</t>
         </is>
       </c>
       <c r="M8" s="2" t="n">
@@ -1007,12 +1007,12 @@
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>7,62%</t>
+          <t>7,54%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>16,21%</t>
+          <t>15,05%</t>
         </is>
       </c>
     </row>
@@ -1034,12 +1034,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,06%</t>
+          <t>2,85%</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>22,37%</t>
+          <t>23,17%</t>
         </is>
       </c>
       <c r="H9" s="2" t="n">
@@ -1055,12 +1055,12 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,92%</t>
+          <t>1,89%</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,43%</t>
+          <t>7,48%</t>
         </is>
       </c>
       <c r="M9" s="2" t="n">
@@ -1076,12 +1076,12 @@
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>2,91%</t>
+          <t>2,82%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>11,69%</t>
+          <t>11,18%</t>
         </is>
       </c>
     </row>
@@ -1129,7 +1129,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>1,93%</t>
+          <t>2,08%</t>
         </is>
       </c>
       <c r="M10" s="2" t="n">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>1,37%</t>
+          <t>1,1%</t>
         </is>
       </c>
     </row>
@@ -1172,12 +1172,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>24,3%</t>
+          <t>23,29%</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>43,3%</t>
+          <t>42,52%</t>
         </is>
       </c>
       <c r="H11" s="2" t="n">
@@ -1193,12 +1193,12 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>22,24%</t>
+          <t>22,83%</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>36,67%</t>
+          <t>37,25%</t>
         </is>
       </c>
       <c r="M11" s="2" t="n">
@@ -1214,12 +1214,12 @@
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>25,62%</t>
+          <t>25,7%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>36,69%</t>
+          <t>37,49%</t>
         </is>
       </c>
     </row>
@@ -1316,12 +1316,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>36,83%</t>
+          <t>36,86%</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>45,98%</t>
+          <t>45,85%</t>
         </is>
       </c>
       <c r="H13" s="2" t="n">
@@ -1337,12 +1337,12 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>36,52%</t>
+          <t>36,8%</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>43,35%</t>
+          <t>43,58%</t>
         </is>
       </c>
       <c r="M13" s="2" t="n">
@@ -1358,12 +1358,12 @@
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>38,13%</t>
+          <t>37,89%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>43,7%</t>
+          <t>43,43%</t>
         </is>
       </c>
     </row>
@@ -1385,12 +1385,12 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>11,76%</t>
+          <t>11,85%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>18,2%</t>
+          <t>17,97%</t>
         </is>
       </c>
       <c r="H14" s="2" t="n">
@@ -1406,12 +1406,12 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>9,67%</t>
+          <t>9,81%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>14,05%</t>
+          <t>14,16%</t>
         </is>
       </c>
       <c r="M14" s="2" t="n">
@@ -1427,12 +1427,12 @@
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>11,33%</t>
+          <t>11,32%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>15,34%</t>
+          <t>15,19%</t>
         </is>
       </c>
     </row>
@@ -1454,12 +1454,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>6,18%</t>
+          <t>6,33%</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>10,95%</t>
+          <t>11,13%</t>
         </is>
       </c>
       <c r="H15" s="2" t="n">
@@ -1475,12 +1475,12 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>7,98%</t>
+          <t>7,79%</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>11,62%</t>
+          <t>11,84%</t>
         </is>
       </c>
       <c r="M15" s="2" t="n">
@@ -1496,12 +1496,12 @@
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>7,67%</t>
+          <t>7,62%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>10,66%</t>
+          <t>10,57%</t>
         </is>
       </c>
     </row>
@@ -1523,12 +1523,12 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,83%</t>
+          <t>1,85%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>5,52%</t>
+          <t>5,61%</t>
         </is>
       </c>
       <c r="H16" s="2" t="n">
@@ -1549,7 +1549,7 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>5,25%</t>
+          <t>5,35%</t>
         </is>
       </c>
       <c r="M16" s="2" t="n">
@@ -1565,12 +1565,12 @@
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>2,62%</t>
+          <t>2,63%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>4,71%</t>
+          <t>4,68%</t>
         </is>
       </c>
     </row>
@@ -1592,12 +1592,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,17%</t>
+          <t>2,18%</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>5,4%</t>
+          <t>5,56%</t>
         </is>
       </c>
       <c r="H17" s="2" t="n">
@@ -1613,12 +1613,12 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>3,97%</t>
+          <t>4,12%</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>6,98%</t>
+          <t>7,14%</t>
         </is>
       </c>
       <c r="M17" s="2" t="n">
@@ -1634,12 +1634,12 @@
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>3,56%</t>
+          <t>3,54%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>5,72%</t>
+          <t>5,64%</t>
         </is>
       </c>
     </row>
@@ -1666,7 +1666,7 @@
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>3,72%</t>
+          <t>3,66%</t>
         </is>
       </c>
       <c r="H18" s="2" t="n">
@@ -1682,12 +1682,12 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>1,77%</t>
+          <t>1,78%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>3,97%</t>
+          <t>3,74%</t>
         </is>
       </c>
       <c r="M18" s="2" t="n">
@@ -1708,7 +1708,7 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>3,21%</t>
+          <t>3,33%</t>
         </is>
       </c>
     </row>
@@ -1730,12 +1730,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,31%</t>
+          <t>0,3%</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>1,61%</t>
+          <t>1,73%</t>
         </is>
       </c>
       <c r="H19" s="2" t="n">
@@ -1751,12 +1751,12 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0,58%</t>
+          <t>0,54%</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>1,85%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="M19" s="2" t="n">
@@ -1772,12 +1772,12 @@
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>0,56%</t>
+          <t>0,57%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>1,48%</t>
+          <t>1,44%</t>
         </is>
       </c>
     </row>
@@ -1799,12 +1799,12 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>22,06%</t>
+          <t>22,3%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>31,01%</t>
+          <t>30,85%</t>
         </is>
       </c>
       <c r="H20" s="2" t="n">
@@ -1820,12 +1820,12 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>22,83%</t>
+          <t>22,29%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>28,73%</t>
+          <t>28,42%</t>
         </is>
       </c>
       <c r="M20" s="2" t="n">
@@ -1841,12 +1841,12 @@
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>23,31%</t>
+          <t>23,36%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>28,48%</t>
+          <t>28,67%</t>
         </is>
       </c>
     </row>
@@ -1882,7 +1882,7 @@
         <v>987</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>587594</v>
+        <v>587593</v>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
@@ -1943,12 +1943,12 @@
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>29,29%</t>
+          <t>28,58%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>39,08%</t>
+          <t>38,61%</t>
         </is>
       </c>
       <c r="H22" s="2" t="n">
@@ -1964,12 +1964,12 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>33,53%</t>
+          <t>33,62%</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>38,77%</t>
+          <t>38,97%</t>
         </is>
       </c>
       <c r="M22" s="2" t="n">
@@ -1985,12 +1985,12 @@
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>32,73%</t>
+          <t>32,28%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>38,12%</t>
+          <t>38,03%</t>
         </is>
       </c>
     </row>
@@ -2012,12 +2012,12 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>14,21%</t>
+          <t>14,43%</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>32,05%</t>
+          <t>35,01%</t>
         </is>
       </c>
       <c r="H23" s="2" t="n">
@@ -2033,7 +2033,7 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>12,59%</t>
+          <t>12,72%</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
@@ -2054,12 +2054,12 @@
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>14,46%</t>
+          <t>14,36%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>24,07%</t>
+          <t>24,38%</t>
         </is>
       </c>
     </row>
@@ -2081,12 +2081,12 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>8,89%</t>
+          <t>8,72%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>13,4%</t>
+          <t>13,46%</t>
         </is>
       </c>
       <c r="H24" s="2" t="n">
@@ -2102,12 +2102,12 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>9,23%</t>
+          <t>9,2%</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>12,58%</t>
+          <t>12,57%</t>
         </is>
       </c>
       <c r="M24" s="2" t="n">
@@ -2123,12 +2123,12 @@
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>9,52%</t>
+          <t>9,48%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>12,5%</t>
+          <t>12,41%</t>
         </is>
       </c>
     </row>
@@ -2150,12 +2150,12 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>1,6%</t>
+          <t>1,64%</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>4,39%</t>
+          <t>4,57%</t>
         </is>
       </c>
       <c r="H25" s="2" t="n">
@@ -2171,12 +2171,12 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>3,02%</t>
+          <t>3,2%</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>5,29%</t>
+          <t>5,4%</t>
         </is>
       </c>
       <c r="M25" s="2" t="n">
@@ -2192,12 +2192,12 @@
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>2,71%</t>
+          <t>2,74%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>4,4%</t>
+          <t>4,39%</t>
         </is>
       </c>
     </row>
@@ -2219,12 +2219,12 @@
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>4,35%</t>
+          <t>4,61%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>8,33%</t>
+          <t>8,49%</t>
         </is>
       </c>
       <c r="H26" s="2" t="n">
@@ -2240,12 +2240,12 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>5,58%</t>
+          <t>5,72%</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>8,47%</t>
+          <t>8,38%</t>
         </is>
       </c>
       <c r="M26" s="2" t="n">
@@ -2261,12 +2261,12 @@
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>5,45%</t>
+          <t>5,49%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>7,86%</t>
+          <t>7,93%</t>
         </is>
       </c>
     </row>
@@ -2288,12 +2288,12 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>2,44%</t>
+          <t>2,46%</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>5,07%</t>
+          <t>5,12%</t>
         </is>
       </c>
       <c r="H27" s="2" t="n">
@@ -2314,7 +2314,7 @@
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>5,99%</t>
+          <t>6,01%</t>
         </is>
       </c>
       <c r="M27" s="2" t="n">
@@ -2330,12 +2330,12 @@
       </c>
       <c r="P27" s="2" t="inlineStr">
         <is>
-          <t>3,43%</t>
+          <t>3,38%</t>
         </is>
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>5,26%</t>
+          <t>5,17%</t>
         </is>
       </c>
     </row>
@@ -2357,12 +2357,12 @@
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,27%</t>
+          <t>0,28%</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>1,33%</t>
+          <t>1,46%</t>
         </is>
       </c>
       <c r="H28" s="2" t="n">
@@ -2378,12 +2378,12 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,78%</t>
+          <t>0,86%</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>2,11%</t>
+          <t>2,2%</t>
         </is>
       </c>
       <c r="M28" s="2" t="n">
@@ -2399,12 +2399,12 @@
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>0,69%</t>
+          <t>0,68%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
         <is>
-          <t>1,54%</t>
+          <t>1,52%</t>
         </is>
       </c>
     </row>
@@ -2426,12 +2426,12 @@
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>17,5%</t>
+          <t>17,3%</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>24,14%</t>
+          <t>24,0%</t>
         </is>
       </c>
       <c r="H29" s="2" t="n">
@@ -2447,12 +2447,12 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>19,06%</t>
+          <t>19,07%</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>23,49%</t>
+          <t>23,59%</t>
         </is>
       </c>
       <c r="M29" s="2" t="n">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="Q29" s="2" t="inlineStr">
         <is>
-          <t>23,29%</t>
+          <t>23,28%</t>
         </is>
       </c>
     </row>
@@ -2570,12 +2570,12 @@
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>37,15%</t>
+          <t>36,45%</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>45,34%</t>
+          <t>45,42%</t>
         </is>
       </c>
       <c r="H31" s="2" t="n">
@@ -2591,12 +2591,12 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>34,94%</t>
+          <t>34,58%</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>63,38%</t>
+          <t>64,01%</t>
         </is>
       </c>
       <c r="M31" s="2" t="n">
@@ -2612,12 +2612,12 @@
       </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>37,59%</t>
+          <t>37,7%</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
         <is>
-          <t>55,94%</t>
+          <t>58,41%</t>
         </is>
       </c>
     </row>
@@ -2639,12 +2639,12 @@
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>5,76%</t>
+          <t>5,94%</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>10,18%</t>
+          <t>10,34%</t>
         </is>
       </c>
       <c r="H32" s="2" t="n">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>9,04%</t>
+          <t>9,02%</t>
         </is>
       </c>
       <c r="M32" s="2" t="n">
@@ -2681,12 +2681,12 @@
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>5,46%</t>
+          <t>5,78%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
         <is>
-          <t>8,86%</t>
+          <t>8,89%</t>
         </is>
       </c>
     </row>
@@ -2708,12 +2708,12 @@
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>12,88%</t>
+          <t>12,98%</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>19,14%</t>
+          <t>19,32%</t>
         </is>
       </c>
       <c r="H33" s="2" t="n">
@@ -2729,12 +2729,12 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>7,93%</t>
+          <t>8,13%</t>
         </is>
       </c>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>15,0%</t>
+          <t>15,33%</t>
         </is>
       </c>
       <c r="M33" s="2" t="n">
@@ -2750,12 +2750,12 @@
       </c>
       <c r="P33" s="2" t="inlineStr">
         <is>
-          <t>10,64%</t>
+          <t>10,74%</t>
         </is>
       </c>
       <c r="Q33" s="2" t="inlineStr">
         <is>
-          <t>16,13%</t>
+          <t>16,05%</t>
         </is>
       </c>
     </row>
@@ -2777,12 +2777,12 @@
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>5,18%</t>
+          <t>5,1%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>9,71%</t>
+          <t>9,77%</t>
         </is>
       </c>
       <c r="H34" s="2" t="n">
@@ -2798,12 +2798,12 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>2,5%</t>
+          <t>2,53%</t>
         </is>
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>5,86%</t>
+          <t>5,73%</t>
         </is>
       </c>
       <c r="M34" s="2" t="n">
@@ -2819,12 +2819,12 @@
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>4,09%</t>
+          <t>4,15%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
         <is>
-          <t>6,87%</t>
+          <t>6,96%</t>
         </is>
       </c>
     </row>
@@ -2846,12 +2846,12 @@
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>4,07%</t>
+          <t>4,02%</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>8,07%</t>
+          <t>8,23%</t>
         </is>
       </c>
       <c r="H35" s="2" t="n">
@@ -2867,12 +2867,12 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>5,49%</t>
+          <t>5,23%</t>
         </is>
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>10,94%</t>
+          <t>10,96%</t>
         </is>
       </c>
       <c r="M35" s="2" t="n">
@@ -2888,12 +2888,12 @@
       </c>
       <c r="P35" s="2" t="inlineStr">
         <is>
-          <t>5,46%</t>
+          <t>5,39%</t>
         </is>
       </c>
       <c r="Q35" s="2" t="inlineStr">
         <is>
-          <t>8,69%</t>
+          <t>8,87%</t>
         </is>
       </c>
     </row>
@@ -2915,12 +2915,12 @@
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>2,18%</t>
+          <t>2,13%</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>5,31%</t>
+          <t>5,5%</t>
         </is>
       </c>
       <c r="H36" s="2" t="n">
@@ -2936,12 +2936,12 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>2,57%</t>
+          <t>2,5%</t>
         </is>
       </c>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>5,66%</t>
+          <t>5,77%</t>
         </is>
       </c>
       <c r="M36" s="2" t="n">
@@ -2957,12 +2957,12 @@
       </c>
       <c r="P36" s="2" t="inlineStr">
         <is>
-          <t>2,91%</t>
+          <t>2,81%</t>
         </is>
       </c>
       <c r="Q36" s="2" t="inlineStr">
         <is>
-          <t>5,13%</t>
+          <t>4,99%</t>
         </is>
       </c>
     </row>
@@ -2984,12 +2984,12 @@
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>1,09%</t>
+          <t>1,11%</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>3,54%</t>
+          <t>3,6%</t>
         </is>
       </c>
       <c r="H37" s="2" t="n">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>0,94%</t>
+          <t>0,92%</t>
         </is>
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>2,78%</t>
+          <t>2,83%</t>
         </is>
       </c>
       <c r="M37" s="2" t="n">
@@ -3026,12 +3026,12 @@
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>1,3%</t>
+          <t>1,25%</t>
         </is>
       </c>
       <c r="Q37" s="2" t="inlineStr">
         <is>
-          <t>2,78%</t>
+          <t>2,79%</t>
         </is>
       </c>
     </row>
@@ -3053,12 +3053,12 @@
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>13,55%</t>
+          <t>13,47%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>19,96%</t>
+          <t>20,12%</t>
         </is>
       </c>
       <c r="H38" s="2" t="n">
@@ -3074,12 +3074,12 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>11,14%</t>
+          <t>11,78%</t>
         </is>
       </c>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>23,0%</t>
+          <t>22,79%</t>
         </is>
       </c>
       <c r="M38" s="2" t="n">
@@ -3095,12 +3095,12 @@
       </c>
       <c r="P38" s="2" t="inlineStr">
         <is>
-          <t>13,96%</t>
+          <t>13,77%</t>
         </is>
       </c>
       <c r="Q38" s="2" t="inlineStr">
         <is>
-          <t>20,51%</t>
+          <t>20,48%</t>
         </is>
       </c>
     </row>
@@ -3197,7 +3197,7 @@
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>45,5%</t>
+          <t>45,89%</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
@@ -3218,12 +3218,12 @@
       </c>
       <c r="K40" s="2" t="inlineStr">
         <is>
-          <t>37,9%</t>
+          <t>38,04%</t>
         </is>
       </c>
       <c r="L40" s="2" t="inlineStr">
         <is>
-          <t>43,99%</t>
+          <t>43,94%</t>
         </is>
       </c>
       <c r="M40" s="2" t="n">
@@ -3239,12 +3239,12 @@
       </c>
       <c r="P40" s="2" t="inlineStr">
         <is>
-          <t>42,35%</t>
+          <t>42,63%</t>
         </is>
       </c>
       <c r="Q40" s="2" t="inlineStr">
         <is>
-          <t>47,08%</t>
+          <t>47,09%</t>
         </is>
       </c>
     </row>
@@ -3266,12 +3266,12 @@
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>10,87%</t>
+          <t>10,88%</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>15,21%</t>
+          <t>15,61%</t>
         </is>
       </c>
       <c r="H41" s="2" t="n">
@@ -3287,12 +3287,12 @@
       </c>
       <c r="K41" s="2" t="inlineStr">
         <is>
-          <t>7,98%</t>
+          <t>8,21%</t>
         </is>
       </c>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t>11,29%</t>
+          <t>11,68%</t>
         </is>
       </c>
       <c r="M41" s="2" t="n">
@@ -3313,7 +3313,7 @@
       </c>
       <c r="Q41" s="2" t="inlineStr">
         <is>
-          <t>12,61%</t>
+          <t>12,62%</t>
         </is>
       </c>
     </row>
@@ -3335,12 +3335,12 @@
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>9,61%</t>
+          <t>9,7%</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>14,18%</t>
+          <t>14,51%</t>
         </is>
       </c>
       <c r="H42" s="2" t="n">
@@ -3356,12 +3356,12 @@
       </c>
       <c r="K42" s="2" t="inlineStr">
         <is>
-          <t>13,05%</t>
+          <t>12,95%</t>
         </is>
       </c>
       <c r="L42" s="2" t="inlineStr">
         <is>
-          <t>17,34%</t>
+          <t>17,27%</t>
         </is>
       </c>
       <c r="M42" s="2" t="n">
@@ -3377,12 +3377,12 @@
       </c>
       <c r="P42" s="2" t="inlineStr">
         <is>
-          <t>12,11%</t>
+          <t>12,14%</t>
         </is>
       </c>
       <c r="Q42" s="2" t="inlineStr">
         <is>
-          <t>15,4%</t>
+          <t>15,19%</t>
         </is>
       </c>
     </row>
@@ -3404,12 +3404,12 @@
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>1,35%</t>
+          <t>1,36%</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>3,37%</t>
+          <t>3,33%</t>
         </is>
       </c>
       <c r="H43" s="2" t="n">
@@ -3425,12 +3425,12 @@
       </c>
       <c r="K43" s="2" t="inlineStr">
         <is>
-          <t>2,78%</t>
+          <t>2,65%</t>
         </is>
       </c>
       <c r="L43" s="2" t="inlineStr">
         <is>
-          <t>4,66%</t>
+          <t>4,54%</t>
         </is>
       </c>
       <c r="M43" s="2" t="n">
@@ -3446,12 +3446,12 @@
       </c>
       <c r="P43" s="2" t="inlineStr">
         <is>
-          <t>2,33%</t>
+          <t>2,39%</t>
         </is>
       </c>
       <c r="Q43" s="2" t="inlineStr">
         <is>
-          <t>3,67%</t>
+          <t>3,66%</t>
         </is>
       </c>
     </row>
@@ -3473,12 +3473,12 @@
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>3,48%</t>
+          <t>3,39%</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>6,44%</t>
+          <t>6,36%</t>
         </is>
       </c>
       <c r="H44" s="2" t="n">
@@ -3494,12 +3494,12 @@
       </c>
       <c r="K44" s="2" t="inlineStr">
         <is>
-          <t>5,1%</t>
+          <t>5,13%</t>
         </is>
       </c>
       <c r="L44" s="2" t="inlineStr">
         <is>
-          <t>7,8%</t>
+          <t>7,81%</t>
         </is>
       </c>
       <c r="M44" s="2" t="n">
@@ -3515,7 +3515,7 @@
       </c>
       <c r="P44" s="2" t="inlineStr">
         <is>
-          <t>4,72%</t>
+          <t>4,67%</t>
         </is>
       </c>
       <c r="Q44" s="2" t="inlineStr">
@@ -3547,7 +3547,7 @@
       </c>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>4,19%</t>
+          <t>4,14%</t>
         </is>
       </c>
       <c r="H45" s="2" t="n">
@@ -3563,12 +3563,12 @@
       </c>
       <c r="K45" s="2" t="inlineStr">
         <is>
-          <t>2,7%</t>
+          <t>2,65%</t>
         </is>
       </c>
       <c r="L45" s="2" t="inlineStr">
         <is>
-          <t>9,34%</t>
+          <t>9,93%</t>
         </is>
       </c>
       <c r="M45" s="2" t="n">
@@ -3584,12 +3584,12 @@
       </c>
       <c r="P45" s="2" t="inlineStr">
         <is>
-          <t>2,72%</t>
+          <t>2,62%</t>
         </is>
       </c>
       <c r="Q45" s="2" t="inlineStr">
         <is>
-          <t>6,32%</t>
+          <t>6,23%</t>
         </is>
       </c>
     </row>
@@ -3611,12 +3611,12 @@
       </c>
       <c r="F46" s="2" t="inlineStr">
         <is>
-          <t>0,64%</t>
+          <t>0,63%</t>
         </is>
       </c>
       <c r="G46" s="2" t="inlineStr">
         <is>
-          <t>1,95%</t>
+          <t>1,8%</t>
         </is>
       </c>
       <c r="H46" s="2" t="n">
@@ -3632,12 +3632,12 @@
       </c>
       <c r="K46" s="2" t="inlineStr">
         <is>
-          <t>1,52%</t>
+          <t>1,47%</t>
         </is>
       </c>
       <c r="L46" s="2" t="inlineStr">
         <is>
-          <t>3,13%</t>
+          <t>3,08%</t>
         </is>
       </c>
       <c r="M46" s="2" t="n">
@@ -3653,12 +3653,12 @@
       </c>
       <c r="P46" s="2" t="inlineStr">
         <is>
-          <t>1,3%</t>
+          <t>1,26%</t>
         </is>
       </c>
       <c r="Q46" s="2" t="inlineStr">
         <is>
-          <t>2,3%</t>
+          <t>2,32%</t>
         </is>
       </c>
     </row>
@@ -3680,12 +3680,12 @@
       </c>
       <c r="F47" s="2" t="inlineStr">
         <is>
-          <t>12,73%</t>
+          <t>12,98%</t>
         </is>
       </c>
       <c r="G47" s="2" t="inlineStr">
         <is>
-          <t>17,52%</t>
+          <t>17,51%</t>
         </is>
       </c>
       <c r="H47" s="2" t="n">
@@ -3701,12 +3701,12 @@
       </c>
       <c r="K47" s="2" t="inlineStr">
         <is>
-          <t>15,85%</t>
+          <t>15,74%</t>
         </is>
       </c>
       <c r="L47" s="2" t="inlineStr">
         <is>
-          <t>19,78%</t>
+          <t>19,9%</t>
         </is>
       </c>
       <c r="M47" s="2" t="n">
@@ -3722,12 +3722,12 @@
       </c>
       <c r="P47" s="2" t="inlineStr">
         <is>
-          <t>14,95%</t>
+          <t>14,94%</t>
         </is>
       </c>
       <c r="Q47" s="2" t="inlineStr">
         <is>
-          <t>18,27%</t>
+          <t>18,12%</t>
         </is>
       </c>
     </row>
@@ -3824,12 +3824,12 @@
       </c>
       <c r="F49" s="2" t="inlineStr">
         <is>
-          <t>39,22%</t>
+          <t>39,05%</t>
         </is>
       </c>
       <c r="G49" s="2" t="inlineStr">
         <is>
-          <t>43,52%</t>
+          <t>43,49%</t>
         </is>
       </c>
       <c r="H49" s="2" t="n">
@@ -3845,12 +3845,12 @@
       </c>
       <c r="K49" s="2" t="inlineStr">
         <is>
-          <t>37,12%</t>
+          <t>37,44%</t>
         </is>
       </c>
       <c r="L49" s="2" t="inlineStr">
         <is>
-          <t>46,32%</t>
+          <t>46,39%</t>
         </is>
       </c>
       <c r="M49" s="2" t="n">
@@ -3866,12 +3866,12 @@
       </c>
       <c r="P49" s="2" t="inlineStr">
         <is>
-          <t>38,77%</t>
+          <t>39,02%</t>
         </is>
       </c>
       <c r="Q49" s="2" t="inlineStr">
         <is>
-          <t>43,75%</t>
+          <t>44,13%</t>
         </is>
       </c>
     </row>
@@ -3893,12 +3893,12 @@
       </c>
       <c r="F50" s="2" t="inlineStr">
         <is>
-          <t>11,94%</t>
+          <t>12,07%</t>
         </is>
       </c>
       <c r="G50" s="2" t="inlineStr">
         <is>
-          <t>18,22%</t>
+          <t>18,71%</t>
         </is>
       </c>
       <c r="H50" s="2" t="n">
@@ -3914,12 +3914,12 @@
       </c>
       <c r="K50" s="2" t="inlineStr">
         <is>
-          <t>9,26%</t>
+          <t>9,29%</t>
         </is>
       </c>
       <c r="L50" s="2" t="inlineStr">
         <is>
-          <t>11,57%</t>
+          <t>11,56%</t>
         </is>
       </c>
       <c r="M50" s="2" t="n">
@@ -3940,7 +3940,7 @@
       </c>
       <c r="Q50" s="2" t="inlineStr">
         <is>
-          <t>14,36%</t>
+          <t>14,42%</t>
         </is>
       </c>
     </row>
@@ -3962,12 +3962,12 @@
       </c>
       <c r="F51" s="2" t="inlineStr">
         <is>
-          <t>10,71%</t>
+          <t>10,65%</t>
         </is>
       </c>
       <c r="G51" s="2" t="inlineStr">
         <is>
-          <t>13,25%</t>
+          <t>13,18%</t>
         </is>
       </c>
       <c r="H51" s="2" t="n">
@@ -3983,12 +3983,12 @@
       </c>
       <c r="K51" s="2" t="inlineStr">
         <is>
-          <t>11,21%</t>
+          <t>11,07%</t>
         </is>
       </c>
       <c r="L51" s="2" t="inlineStr">
         <is>
-          <t>13,7%</t>
+          <t>13,61%</t>
         </is>
       </c>
       <c r="M51" s="2" t="n">
@@ -4004,12 +4004,12 @@
       </c>
       <c r="P51" s="2" t="inlineStr">
         <is>
-          <t>11,33%</t>
+          <t>11,32%</t>
         </is>
       </c>
       <c r="Q51" s="2" t="inlineStr">
         <is>
-          <t>13,13%</t>
+          <t>13,1%</t>
         </is>
       </c>
     </row>
@@ -4031,12 +4031,12 @@
       </c>
       <c r="F52" s="2" t="inlineStr">
         <is>
-          <t>2,76%</t>
+          <t>2,82%</t>
         </is>
       </c>
       <c r="G52" s="2" t="inlineStr">
         <is>
-          <t>4,27%</t>
+          <t>4,32%</t>
         </is>
       </c>
       <c r="H52" s="2" t="n">
@@ -4052,12 +4052,12 @@
       </c>
       <c r="K52" s="2" t="inlineStr">
         <is>
-          <t>3,35%</t>
+          <t>3,27%</t>
         </is>
       </c>
       <c r="L52" s="2" t="inlineStr">
         <is>
-          <t>4,67%</t>
+          <t>4,49%</t>
         </is>
       </c>
       <c r="M52" s="2" t="n">
@@ -4073,12 +4073,12 @@
       </c>
       <c r="P52" s="2" t="inlineStr">
         <is>
-          <t>3,28%</t>
+          <t>3,26%</t>
         </is>
       </c>
       <c r="Q52" s="2" t="inlineStr">
         <is>
-          <t>4,21%</t>
+          <t>4,2%</t>
         </is>
       </c>
     </row>
@@ -4100,12 +4100,12 @@
       </c>
       <c r="F53" s="2" t="inlineStr">
         <is>
-          <t>4,4%</t>
+          <t>4,45%</t>
         </is>
       </c>
       <c r="G53" s="2" t="inlineStr">
         <is>
-          <t>6,24%</t>
+          <t>6,18%</t>
         </is>
       </c>
       <c r="H53" s="2" t="n">
@@ -4121,7 +4121,7 @@
       </c>
       <c r="K53" s="2" t="inlineStr">
         <is>
-          <t>6,15%</t>
+          <t>6,14%</t>
         </is>
       </c>
       <c r="L53" s="2" t="inlineStr">
@@ -4142,12 +4142,12 @@
       </c>
       <c r="P53" s="2" t="inlineStr">
         <is>
-          <t>5,64%</t>
+          <t>5,61%</t>
         </is>
       </c>
       <c r="Q53" s="2" t="inlineStr">
         <is>
-          <t>6,87%</t>
+          <t>6,85%</t>
         </is>
       </c>
     </row>
@@ -4169,12 +4169,12 @@
       </c>
       <c r="F54" s="2" t="inlineStr">
         <is>
-          <t>2,67%</t>
+          <t>2,62%</t>
         </is>
       </c>
       <c r="G54" s="2" t="inlineStr">
         <is>
-          <t>3,99%</t>
+          <t>4,07%</t>
         </is>
       </c>
       <c r="H54" s="2" t="n">
@@ -4190,12 +4190,12 @@
       </c>
       <c r="K54" s="2" t="inlineStr">
         <is>
-          <t>3,43%</t>
+          <t>3,47%</t>
         </is>
       </c>
       <c r="L54" s="2" t="inlineStr">
         <is>
-          <t>5,64%</t>
+          <t>5,75%</t>
         </is>
       </c>
       <c r="M54" s="2" t="n">
@@ -4211,12 +4211,12 @@
       </c>
       <c r="P54" s="2" t="inlineStr">
         <is>
-          <t>3,24%</t>
+          <t>3,23%</t>
         </is>
       </c>
       <c r="Q54" s="2" t="inlineStr">
         <is>
-          <t>4,5%</t>
+          <t>4,59%</t>
         </is>
       </c>
     </row>
@@ -4238,12 +4238,12 @@
       </c>
       <c r="F55" s="2" t="inlineStr">
         <is>
-          <t>0,76%</t>
+          <t>0,75%</t>
         </is>
       </c>
       <c r="G55" s="2" t="inlineStr">
         <is>
-          <t>1,51%</t>
+          <t>1,53%</t>
         </is>
       </c>
       <c r="H55" s="2" t="n">
@@ -4259,12 +4259,12 @@
       </c>
       <c r="K55" s="2" t="inlineStr">
         <is>
-          <t>1,28%</t>
+          <t>1,29%</t>
         </is>
       </c>
       <c r="L55" s="2" t="inlineStr">
         <is>
-          <t>2,05%</t>
+          <t>2,07%</t>
         </is>
       </c>
       <c r="M55" s="2" t="n">
@@ -4280,12 +4280,12 @@
       </c>
       <c r="P55" s="2" t="inlineStr">
         <is>
-          <t>1,15%</t>
+          <t>1,14%</t>
         </is>
       </c>
       <c r="Q55" s="2" t="inlineStr">
         <is>
-          <t>1,67%</t>
+          <t>1,65%</t>
         </is>
       </c>
     </row>
@@ -4307,12 +4307,12 @@
       </c>
       <c r="F56" s="2" t="inlineStr">
         <is>
-          <t>17,99%</t>
+          <t>17,95%</t>
         </is>
       </c>
       <c r="G56" s="2" t="inlineStr">
         <is>
-          <t>21,28%</t>
+          <t>21,23%</t>
         </is>
       </c>
       <c r="H56" s="2" t="n">
@@ -4328,12 +4328,12 @@
       </c>
       <c r="K56" s="2" t="inlineStr">
         <is>
-          <t>18,36%</t>
+          <t>18,4%</t>
         </is>
       </c>
       <c r="L56" s="2" t="inlineStr">
         <is>
-          <t>21,87%</t>
+          <t>22,01%</t>
         </is>
       </c>
       <c r="M56" s="2" t="n">
@@ -4349,12 +4349,12 @@
       </c>
       <c r="P56" s="2" t="inlineStr">
         <is>
-          <t>18,88%</t>
+          <t>18,81%</t>
         </is>
       </c>
       <c r="Q56" s="2" t="inlineStr">
         <is>
-          <t>21,25%</t>
+          <t>21,3%</t>
         </is>
       </c>
     </row>
